--- a/static/upload/AutoFW_test_case_demo.xlsx
+++ b/static/upload/AutoFW_test_case_demo.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="OG-AutoFW-CASE" sheetId="1" r:id="rId1"/>
+    <sheet name="readMe" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,29 +16,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>AutoFW自动化平台测试用例导入模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒烟用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonglp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBS_XQXQY_general-&gt;TBS_GG_share-link-&gt;TBS_XQXQY_basic-info-&gt;TBS_GG_advertisement_list-&gt;TBS_XQXQY_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔博士用户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"questionId":{"TBS_XQXQY_question_create":["JJD_question_390958","JJD_question_reply"]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"TBS_SY_api_init":{"appId":["1"],"appCode":["1"],"currentVersion":["8.1.1"]},"TBS_SY_count-new":{"cityId":["605","604"],"fromMomentId":["458617","458616"]},"TBS_SY_getCityInfo":{"geoSystem":["baidu"],"lat":["31.21208052777706"],"lng":["121.6076205988191"]},"TBS_SY_homePage":{"cityId":["605"],"lat":["31.21208052777706"],"lng":["121.6076205988191"]},"TBS_SY_houseInformation":{"cityId":["605"],"type1":["1"],"type2":["2"]},"TBS_SY_userValuation":{"cityId":["605"]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATOR：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用系统的账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例填写规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一值：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行顺序</t>
+    <t>用例编号/用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键引用：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目、所属模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行顺序：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号之间用'-&gt;'链接，从左到右遍历接口编号执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数化：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,91 +178,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒烟用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小区详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gonglp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBS_XQXQY_general-&gt;TBS_GG_share-link-&gt;TBS_XQXQY_basic-info-&gt;TBS_GG_advertisement_list-&gt;TBS_XQXQY_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔博士用户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"questionId":{"TBS_XQXQY_question_create":["JJD_question_390958","JJD_question_reply"]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"TBS_SY_api_init":{"appId":["1"],"appCode":["1"],"currentVersion":["8.1.1"]},"TBS_SY_count-new":{"cityId":["605","604"],"fromMomentId":["458617","458616"]},"TBS_SY_getCityInfo":{"geoSystem":["baidu"],"lat":["31.21208052777706"],"lng":["121.6076205988191"]},"TBS_SY_homePage":{"cityId":["605"],"lat":["31.21208052777706"],"lng":["121.6076205988191"]},"TBS_SY_houseInformation":{"cityId":["605"],"type1":["1"],"type2":["2"]},"TBS_SY_userValuation":{"cityId":["605"]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test3</t>
+    <t>接口之间存在调用返回值的情况使用提取变量，接收JSON格式，格式如下：
+{"变量名1":{"提取返回值的接口名1":["传入返回值的接口名1","传入返回值的接口名2"]},"变量名2":{"提取返回值的接口名2":["传入返回值的接口名3","传入返回值的接口名4"]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收JSON格式，属性值接收数组，执行顺序中出现重复接口时取参数值是顺序遍历数组，格式如下：
+{"接口名1":{"参数名1":["参数值1","参数值2"],"参数名2":["参数值1"]},"接口名2":{"参数名3":["参数值1"],"参数名3":["参数值2"]}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +228,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -278,10 +344,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,20 +372,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" activeCellId="1" sqref="A2 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -622,158 +700,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="143.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="189">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="143.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="189">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="189">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="189">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -788,12 +866,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="135.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="37.5" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" ht="42" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="42" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="42" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="42" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="42" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
